--- a/biology/Médecine/Prix_Emil_von_Behring/Prix_Emil_von_Behring.xlsx
+++ b/biology/Médecine/Prix_Emil_von_Behring/Prix_Emil_von_Behring.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix Emil von Behring de l'université de Marbourg, qui tient son nom d'Emil von Behring, premier lauréat du prix Nobel de physiologie ou médecine, est l'un des prix scientifiques allemands les plus importants. Il est décerné tous les deux ans depuis 1942. Doté d'un montant de 25 000 euros, le prix Emil von Behring consiste en une médaille avec un portrait du célèbre médecin. Le prix est financé par la société Novartis Behring.
 En vertu des statuts, le prix est attribué aux scientifiques qui se sont distingués dans les domaines médical, vétérinaire et scientifique. En mémoire d'Emil von Behring, doivent ainsi être distingués les savants qui travaillent dans les domaines de l'immunologie et de la lutte contre les infections.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
